--- a/resultados/ComparaçõesRealPredições.xlsx
+++ b/resultados/ComparaçõesRealPredições.xlsx
@@ -453,131 +453,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Star Wars: Episode VI - Return of the Jedi</t>
+          <t>Star Trek Into Darkness</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="C2" t="n">
-        <v>8.21482601493986</v>
+        <v>7.988505521724489</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Wo hu cang long</t>
+          <t>Kaze tachinu</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>7.8</v>
       </c>
       <c r="C3" t="n">
-        <v>7.879978579547836</v>
+        <v>7.7848750959987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hedwig and the Angry Inch</t>
+          <t>Gully Boy</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>7.852040392302627</v>
+        <v>7.763132574181368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Forrest Gump</t>
+          <t>The Incredibles</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>8.802509139209766</v>
+        <v>7.952399838025931</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Per qualche dollaro in più</t>
+          <t>Cast Away</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="C6" t="n">
-        <v>7.962381375004814</v>
+        <v>7.830506162519567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Jungle Book</t>
+          <t>Todo sobre mi madre</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="C7" t="n">
-        <v>7.869085876340413</v>
+        <v>7.938864905801067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Un long dimanche de fiançailles</t>
+          <t>Darbareye Elly</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>7.910361221868293</v>
+        <v>7.7848750959987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saving Private Ryan</t>
+          <t>Blade Runner 2049</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>8.556078268948474</v>
+        <v>7.947370023723592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Short Cuts</t>
+          <t>Amadeus</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>7.847723605915824</v>
+        <v>7.983348737830903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Le passé</t>
+          <t>The Insider</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>7.8</v>
       </c>
       <c r="C11" t="n">
-        <v>7.935620875553325</v>
+        <v>7.898316530412827</v>
       </c>
     </row>
   </sheetData>
